--- a/tests/resources/expected/data_dict_filtered.xlsx
+++ b/tests/resources/expected/data_dict_filtered.xlsx
@@ -55,94 +55,94 @@
     <t xml:space="preserve">test_col1</t>
   </si>
   <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oid : 25359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECT : 25359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string : 25359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY(float : 50714, null : 2) : 25359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . zipcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borough</t>
+  </si>
+  <si>
     <t xml:space="preserve">cuisine</t>
   </si>
   <si>
-    <t xml:space="preserve">string : 25359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">borough</t>
+    <t xml:space="preserve">grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRAY(OBJECT : 93463, null : 738) : 25359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string : 93463</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer : 93450, null : 13</t>
   </si>
   <si>
     <t xml:space="preserve">restaurant_id</t>
   </si>
   <si>
-    <t xml:space="preserve">grades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY(OBJECT : 93463, null : 738) : 25359</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string : 93463</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer : 93450, null : 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT : 25359</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">building</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . zipcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zipcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . coord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRAY(float : 50714, null : 2) : 25359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oid : 25359</t>
-  </si>
-  <si>
     <t xml:space="preserve">test_col2</t>
   </si>
   <si>
+    <t xml:space="preserve"> : date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date : 93463</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date : 93463</t>
   </si>
 </sst>
 </file>
@@ -520,18 +520,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J65536"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>25359</v>
@@ -635,7 +635,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>25359</v>
@@ -661,7 +661,7 @@
         <v>100</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,19 +675,19 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>93463</v>
+        <v>25359</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>368.56</v>
+        <v>100</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,19 +701,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>93463</v>
+        <v>25359</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>368.56</v>
+        <v>100</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>25359</v>
@@ -739,7 +739,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>26</v>
@@ -765,7 +765,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,16 +782,16 @@
         <v>27</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>25359</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>25359</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,13 +811,13 @@
         <v>30</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>25359</v>
+        <v>93463</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>100</v>
+        <v>368.56</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>25359</v>
+        <v>93463</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>100</v>
+        <v>368.56</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>25359</v>
@@ -869,7 +869,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +909,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>25359</v>
@@ -921,7 +921,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,10 +935,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>25359</v>
@@ -947,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +961,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>25359</v>
@@ -973,7 +973,7 @@
         <v>100</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,10 +987,10 @@
         <v>36</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>25359</v>
@@ -999,7 +999,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,19 +1013,19 @@
         <v>36</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>93463</v>
+        <v>25359</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>368.56</v>
+        <v>100</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,19 +1039,19 @@
         <v>36</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>93463</v>
+        <v>25359</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>368.56</v>
+        <v>100</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,19 +1065,19 @@
         <v>36</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>93463</v>
+        <v>25359</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>368.56</v>
+        <v>100</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,10 +1091,10 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>25359</v>
@@ -1103,7 +1103,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,19 +1117,19 @@
         <v>36</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>25359</v>
+        <v>93463</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>100</v>
+        <v>368.56</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,19 +1143,19 @@
         <v>36</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>25359</v>
+        <v>93463</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>100</v>
+        <v>368.56</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,19 +1169,19 @@
         <v>36</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>25359</v>
+        <v>93463</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>100</v>
+        <v>368.56</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,10 +1195,10 @@
         <v>36</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>25359</v>
@@ -1207,7 +1207,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,10 +1221,10 @@
         <v>36</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>25359</v>
@@ -1233,25 +1233,9 @@
         <v>100</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/resources/expected/data_dict_filtered.xlsx
+++ b/tests/resources/expected/data_dict_filtered.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
